--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_to.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_to.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD61EB5E-05AE-40A7-ABE9-230BCC967804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5CE58A-B7A7-2B4A-9B32-D020BC6A2B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -872,16 +872,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -905,9 +899,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,21 +1206,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>278</v>
       </c>
@@ -1241,7 +1234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1700251</v>
       </c>
@@ -1252,7 +1245,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1700301</v>
       </c>
@@ -1263,7 +1256,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1700350</v>
       </c>
@@ -1274,7 +1267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1700400</v>
       </c>
@@ -1285,7 +1278,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1700707</v>
       </c>
@@ -1296,7 +1289,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1701002</v>
       </c>
@@ -1307,7 +1300,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1701051</v>
       </c>
@@ -1318,7 +1311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1701101</v>
       </c>
@@ -1329,7 +1322,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1701309</v>
       </c>
@@ -1340,7 +1333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1701903</v>
       </c>
@@ -1351,7 +1344,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1702000</v>
       </c>
@@ -1362,7 +1355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1702109</v>
       </c>
@@ -1373,7 +1366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1702158</v>
       </c>
@@ -1384,7 +1377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1702208</v>
       </c>
@@ -1395,7 +1388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1702307</v>
       </c>
@@ -1406,7 +1399,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1702406</v>
       </c>
@@ -1417,7 +1410,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1702554</v>
       </c>
@@ -1428,7 +1421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1702703</v>
       </c>
@@ -1439,7 +1432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1702901</v>
       </c>
@@ -1450,7 +1443,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1703008</v>
       </c>
@@ -1461,7 +1454,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1703057</v>
       </c>
@@ -1472,7 +1465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1703073</v>
       </c>
@@ -1483,7 +1476,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1703107</v>
       </c>
@@ -1494,7 +1487,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1703206</v>
       </c>
@@ -1505,7 +1498,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1703305</v>
       </c>
@@ -1516,7 +1509,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1703602</v>
       </c>
@@ -1527,7 +1520,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1703701</v>
       </c>
@@ -1538,7 +1531,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1703800</v>
       </c>
@@ -1549,7 +1542,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1703826</v>
       </c>
@@ -1560,7 +1553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1703842</v>
       </c>
@@ -1571,7 +1564,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1703867</v>
       </c>
@@ -1582,7 +1575,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1703883</v>
       </c>
@@ -1593,7 +1586,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1703891</v>
       </c>
@@ -1604,7 +1597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1703909</v>
       </c>
@@ -1615,7 +1608,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1704105</v>
       </c>
@@ -1626,7 +1619,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1704600</v>
       </c>
@@ -1637,7 +1630,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1705102</v>
       </c>
@@ -1648,7 +1641,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1705508</v>
       </c>
@@ -1659,7 +1652,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1705557</v>
       </c>
@@ -1670,7 +1663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1705607</v>
       </c>
@@ -1681,7 +1674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1706001</v>
       </c>
@@ -1692,7 +1685,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1706100</v>
       </c>
@@ -1703,7 +1696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1706258</v>
       </c>
@@ -1714,7 +1707,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1706506</v>
       </c>
@@ -1725,7 +1718,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1707009</v>
       </c>
@@ -1736,7 +1729,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1707108</v>
       </c>
@@ -1747,7 +1740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1707207</v>
       </c>
@@ -1758,7 +1751,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1707306</v>
       </c>
@@ -1769,7 +1762,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1707405</v>
       </c>
@@ -1780,7 +1773,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1707553</v>
       </c>
@@ -1791,7 +1784,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1707652</v>
       </c>
@@ -1802,7 +1795,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1707702</v>
       </c>
@@ -1813,7 +1806,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1708205</v>
       </c>
@@ -1824,7 +1817,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1708254</v>
       </c>
@@ -1835,7 +1828,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1708304</v>
       </c>
@@ -1846,7 +1839,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1709005</v>
       </c>
@@ -1857,7 +1850,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1709302</v>
       </c>
@@ -1868,7 +1861,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1709500</v>
       </c>
@@ -1879,7 +1872,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1709807</v>
       </c>
@@ -1890,7 +1883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1710508</v>
       </c>
@@ -1901,7 +1894,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1710706</v>
       </c>
@@ -1912,7 +1905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1710904</v>
       </c>
@@ -1923,7 +1916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1711100</v>
       </c>
@@ -1934,7 +1927,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1711506</v>
       </c>
@@ -1945,7 +1938,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1711803</v>
       </c>
@@ -1956,7 +1949,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1711902</v>
       </c>
@@ -1967,7 +1960,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1711951</v>
       </c>
@@ -1978,7 +1971,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1712009</v>
       </c>
@@ -1989,7 +1982,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1712157</v>
       </c>
@@ -2000,7 +1993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1712405</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1712454</v>
       </c>
@@ -2022,7 +2015,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1712504</v>
       </c>
@@ -2033,7 +2026,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1712702</v>
       </c>
@@ -2044,7 +2037,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1712801</v>
       </c>
@@ -2055,7 +2048,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1713205</v>
       </c>
@@ -2066,7 +2059,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1713304</v>
       </c>
@@ -2077,7 +2070,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1713601</v>
       </c>
@@ -2088,7 +2081,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1713700</v>
       </c>
@@ -2099,7 +2092,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1713809</v>
       </c>
@@ -2110,7 +2103,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1713957</v>
       </c>
@@ -2121,7 +2114,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1714203</v>
       </c>
@@ -2132,7 +2125,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1714302</v>
       </c>
@@ -2143,7 +2136,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1714880</v>
       </c>
@@ -2154,7 +2147,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1715002</v>
       </c>
@@ -2165,7 +2158,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1715101</v>
       </c>
@@ -2176,7 +2169,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1715150</v>
       </c>
@@ -2187,7 +2180,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1715259</v>
       </c>
@@ -2198,7 +2191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1715507</v>
       </c>
@@ -2209,7 +2202,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1715705</v>
       </c>
@@ -2220,7 +2213,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1715754</v>
       </c>
@@ -2231,7 +2224,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1716109</v>
       </c>
@@ -2242,7 +2235,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1716208</v>
       </c>
@@ -2253,7 +2246,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1716307</v>
       </c>
@@ -2264,7 +2257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1716505</v>
       </c>
@@ -2275,7 +2268,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1716604</v>
       </c>
@@ -2286,7 +2279,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1716653</v>
       </c>
@@ -2297,7 +2290,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1716703</v>
       </c>
@@ -2308,7 +2301,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1717008</v>
       </c>
@@ -2319,7 +2312,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1717206</v>
       </c>
@@ -2330,7 +2323,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1717503</v>
       </c>
@@ -2341,7 +2334,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1717800</v>
       </c>
@@ -2352,7 +2345,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1717909</v>
       </c>
@@ -2363,7 +2356,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1718006</v>
       </c>
@@ -2374,7 +2367,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1718204</v>
       </c>
@@ -2385,7 +2378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1718303</v>
       </c>
@@ -2396,7 +2389,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1718402</v>
       </c>
@@ -2407,7 +2400,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1718451</v>
       </c>
@@ -2418,7 +2411,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1718501</v>
       </c>
@@ -2429,7 +2422,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1718550</v>
       </c>
@@ -2440,7 +2433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1718659</v>
       </c>
@@ -2451,7 +2444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1718709</v>
       </c>
@@ -2462,7 +2455,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1718758</v>
       </c>
@@ -2473,7 +2466,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1718808</v>
       </c>
@@ -2484,7 +2477,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1718840</v>
       </c>
@@ -2495,7 +2488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1718865</v>
       </c>
@@ -2506,7 +2499,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1718881</v>
       </c>
@@ -2517,7 +2510,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1718899</v>
       </c>
@@ -2528,7 +2521,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1718907</v>
       </c>
@@ -2539,7 +2532,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1719004</v>
       </c>
@@ -2550,7 +2543,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1720002</v>
       </c>
@@ -2561,7 +2554,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1720101</v>
       </c>
@@ -2572,7 +2565,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1720150</v>
       </c>
@@ -2583,7 +2576,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1720200</v>
       </c>
@@ -2594,7 +2587,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1720259</v>
       </c>
@@ -2605,7 +2598,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1720309</v>
       </c>
@@ -2616,7 +2609,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1720499</v>
       </c>
@@ -2627,7 +2620,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1720655</v>
       </c>
@@ -2638,7 +2631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1720804</v>
       </c>
@@ -2649,7 +2642,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1720853</v>
       </c>
@@ -2660,7 +2653,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1720903</v>
       </c>
@@ -2671,7 +2664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1720937</v>
       </c>
@@ -2682,7 +2675,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1720978</v>
       </c>
@@ -2693,7 +2686,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1721000</v>
       </c>
@@ -2704,7 +2697,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1721109</v>
       </c>
@@ -2715,7 +2708,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1721208</v>
       </c>
@@ -2726,7 +2719,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1721257</v>
       </c>
@@ -2737,7 +2730,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1721307</v>
       </c>
@@ -2748,7 +2741,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1722081</v>
       </c>
@@ -2759,7 +2752,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1722107</v>
       </c>
@@ -2769,9 +2762,6 @@
       <c r="C140" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
